--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,30 @@
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -76,9 +76,15 @@
     <t>crazy</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
@@ -97,24 +103,27 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
@@ -124,19 +133,16 @@
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -508,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -619,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8275862068965517</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -869,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.55</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.675</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -937,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.4814814814814815</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -987,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.3636363636363636</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,16 +1046,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3541666666666667</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,16 +1096,16 @@
         <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.2372881355932203</v>
+        <v>0.3125</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,16 +1146,16 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2340619307832423</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L14">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>841</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5217391304347826</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.1263157894736842</v>
+        <v>0.2158469945355191</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4358974358974359</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.02962962962962963</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>524</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1269,37 +1275,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0436241610738255</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.02710843373493976</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,21 +1317,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>646</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>23</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.02560819462227913</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,21 +1367,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.05016722408026756</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>284</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.02272727272727273</v>
+        <v>0.01920614596670935</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>602</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.01440092165898618</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
